--- a/Conteudo/Somativa/Somativa Criterios_Avaliativos.xlsx
+++ b/Conteudo/Somativa/Somativa Criterios_Avaliativos.xlsx
@@ -1,38 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1093601\Documents\BackEnd-2Termo\Conteudo\Somativa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEF0997-9DF4-4485-AF22-E1B2FCC663EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3996892B-1927-4DD9-B346-F328FD8FB42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Murilo Almeida" sheetId="14" r:id="rId1"/>
-    <sheet name="Gabriel Bernardi" sheetId="13" r:id="rId2"/>
-    <sheet name="Murilo Coletta" sheetId="12" r:id="rId3"/>
-    <sheet name="Kayque Costa" sheetId="11" r:id="rId4"/>
-    <sheet name="Gabriel Soares" sheetId="10" r:id="rId5"/>
-    <sheet name="Henrique Motta" sheetId="9" r:id="rId6"/>
-    <sheet name="Gabriel Xavier" sheetId="8" r:id="rId7"/>
-    <sheet name="Filippo Delosso" sheetId="7" r:id="rId8"/>
-    <sheet name="Matheus Malaman" sheetId="1" r:id="rId9"/>
-    <sheet name="Joel Neto" sheetId="3" r:id="rId10"/>
-    <sheet name="João Victor" sheetId="4" r:id="rId11"/>
-    <sheet name="Guilherme Bernardi" sheetId="5" r:id="rId12"/>
-    <sheet name="Gabriel Ferreira" sheetId="6" r:id="rId13"/>
+    <sheet name="Diogo Scherrer" sheetId="16" r:id="rId1"/>
+    <sheet name="Henrique Delgado" sheetId="15" r:id="rId2"/>
+    <sheet name="Murilo Almeida" sheetId="14" r:id="rId3"/>
+    <sheet name="Gabriel Bernardi" sheetId="13" r:id="rId4"/>
+    <sheet name="Murilo Coletta" sheetId="12" r:id="rId5"/>
+    <sheet name="Kayque Costa" sheetId="11" r:id="rId6"/>
+    <sheet name="Gabriel Soares" sheetId="10" r:id="rId7"/>
+    <sheet name="Henrique Motta" sheetId="9" r:id="rId8"/>
+    <sheet name="Gabriel Xavier" sheetId="8" r:id="rId9"/>
+    <sheet name="Filippo Delosso" sheetId="7" r:id="rId10"/>
+    <sheet name="Matheus Malaman" sheetId="1" r:id="rId11"/>
+    <sheet name="Joel Neto" sheetId="3" r:id="rId12"/>
+    <sheet name="João Victor" sheetId="4" r:id="rId13"/>
+    <sheet name="Guilherme Bernardi" sheetId="5" r:id="rId14"/>
+    <sheet name="Gabriel Ferreira" sheetId="6" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="36">
   <si>
     <t>Categoria</t>
   </si>
@@ -349,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -386,9 +389,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -697,11 +697,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0117F2-E72E-4C2F-A59A-180C892F5231}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E57BBE8-AF96-411F-BF32-ADEB6D89B15C}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,13 +716,13 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -806,7 +806,9 @@
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -851,9 +853,7 @@
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -863,9 +863,7 @@
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -876,9 +874,7 @@
         <v>35</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -887,12 +883,8 @@
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -901,9 +893,7 @@
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -913,9 +903,7 @@
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -926,9 +914,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
@@ -938,9 +924,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
@@ -950,9 +934,7 @@
         <v>31</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
@@ -971,6 +953,560 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2C6155-4272-42FD-8D1A-2DDE908A96E7}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1923962E-43CD-481C-BC42-5CD697178A8F}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -993,10 +1529,10 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1242,7 +1778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E159366E-9179-42C3-A3FD-A38989C97C4B}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -1265,10 +1801,10 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1514,7 +2050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DEF636-4A7A-4E53-B5BE-15D4AA3E6BD7}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -1537,10 +2073,10 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1788,7 +2324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317DB1F2-0F42-4E15-9CBE-D97D03D0BB16}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -1811,10 +2347,10 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2063,6 +2599,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4FE644-CB73-4007-A323-5018B747F158}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0117F2-E72E-4C2F-A59A-180C892F5231}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7588FBD-0537-4749-9A43-6E57A1361FFB}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -2082,13 +3168,13 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2340,7 +3426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99805EE-E121-4943-A10A-EEC966317ABE}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -2360,13 +3446,13 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2618,7 +3704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7735BB6A-B7D5-49B9-93A6-3D72DB46E9D6}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -2638,13 +3724,13 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2892,7 +3978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6C7524-B1CB-4256-ACDB-4A7C28E95806}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -2915,10 +4001,10 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -3166,7 +4252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB95604-E6A2-48D8-8A7D-5BBDA7879EE8}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -3189,10 +4275,10 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -3442,7 +4528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7EBE02-9D7D-4B82-8B0C-DD92BA61CD95}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -3465,10 +4551,10 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -3701,560 +4787,6 @@
         <v>34</v>
       </c>
       <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2C6155-4272-42FD-8D1A-2DDE908A96E7}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="47.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="47.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
